--- a/ConnexionBDJavafx/myreserv.xlsx
+++ b/ConnexionBDJavafx/myreserv.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t>First Name</t>
   </si>
@@ -28,25 +28,55 @@
     <t>desc</t>
   </si>
   <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>sss</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
     <t>87</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>ddd</t>
-  </si>
-  <si>
     <t>da</t>
   </si>
   <si>
     <t>86</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
   <si>
     <t>hiii</t>
@@ -155,10 +185,146 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
